--- a/DISEÑO/5. Normalizacion/NORMALIZACION PROYECTO.xlsx
+++ b/DISEÑO/5. Normalizacion/NORMALIZACION PROYECTO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Windows\warning\eventoscasadecristal\DISEÑO\5. Normalizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ADSI\eventoscasadecristal\DISEÑO\5. Normalizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388E3B32-8257-474F-8D58-5081212A1B02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NORMALIZACION" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="129">
   <si>
     <t>NO NORMALIZADO</t>
   </si>
@@ -417,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -590,12 +591,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,7 +600,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -617,9 +621,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -900,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -923,42 +926,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="W1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+      <c r="W1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="20"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="18"/>
     </row>
     <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1141,42 +1144,42 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="W10" s="18" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="W10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="20"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1395,42 +1398,42 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="W19" s="18" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="W19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="20"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="18"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1625,12 +1628,12 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1791,32 +1794,32 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="W36" s="18" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="W36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="20"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="18"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -1832,23 +1835,23 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="17"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -2063,20 +2066,20 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="16"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="3"/>
@@ -2723,6 +2726,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="W1:AG1"/>
     <mergeCell ref="W10:AG10"/>
     <mergeCell ref="W19:AG19"/>
@@ -2735,45 +2744,39 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
-    <hyperlink ref="B32" r:id="rId7"/>
-    <hyperlink ref="B33" r:id="rId8"/>
-    <hyperlink ref="B34" r:id="rId9"/>
-    <hyperlink ref="B31" r:id="rId10"/>
-    <hyperlink ref="B49" r:id="rId11"/>
-    <hyperlink ref="B51" r:id="rId12"/>
-    <hyperlink ref="B52" r:id="rId13"/>
-    <hyperlink ref="B53" r:id="rId14"/>
-    <hyperlink ref="B50" r:id="rId15"/>
-    <hyperlink ref="H14" r:id="rId16"/>
-    <hyperlink ref="H17" r:id="rId17"/>
-    <hyperlink ref="H16" r:id="rId18"/>
-    <hyperlink ref="H15" r:id="rId19"/>
-    <hyperlink ref="H13" r:id="rId20"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B52" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,6 +2784,7 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2798,28 +2802,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
@@ -2858,25 +2862,25 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -3274,33 +3278,33 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -3333,27 +3337,27 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -3786,33 +3790,33 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -3859,16 +3863,16 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="10"/>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -4506,34 +4510,34 @@
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -4565,11 +4569,11 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="7"/>
       <c r="F42" s="21" t="s">
         <v>57</v>
@@ -4582,10 +4586,10 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="O42" s="16" t="s">
+      <c r="O42" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="P42" s="16"/>
+      <c r="P42" s="19"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -5455,8 +5459,8 @@
       <c r="I69" s="1">
         <v>30</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>108</v>
+      <c r="J69" s="26">
+        <v>4000000</v>
       </c>
       <c r="L69" s="1">
         <v>100</v>
@@ -5484,8 +5488,8 @@
       <c r="I70" s="1">
         <v>31</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>109</v>
+      <c r="J70" s="26">
+        <v>5000000</v>
       </c>
       <c r="L70" s="1">
         <v>200</v>
@@ -5513,7 +5517,7 @@
       <c r="I71" s="1">
         <v>32</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="27" t="s">
         <v>110</v>
       </c>
       <c r="L71" s="1">
@@ -5525,11 +5529,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="O23:V23"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A21:Y21"/>
     <mergeCell ref="A11:Y11"/>
@@ -5543,6 +5542,11 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="A40:Z40"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="O23:V23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
